--- a/target/test-classes/ExcelData.xlsx
+++ b/target/test-classes/ExcelData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Admin</t>
   </si>
@@ -42,6 +42,18 @@
   </si>
   <si>
     <t>…TestD</t>
+  </si>
+  <si>
+    <t>Salman</t>
+  </si>
+  <si>
+    <t>Khan</t>
+  </si>
+  <si>
+    <t>PIMtest</t>
+  </si>
+  <si>
+    <t>TestA</t>
   </si>
 </sst>
 </file>
@@ -359,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -370,7 +382,7 @@
     <col min="2" max="2" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -381,7 +393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -392,7 +404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -401,6 +413,23 @@
       </c>
       <c r="C3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>222</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/ExcelData.xlsx
+++ b/target/test-classes/ExcelData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Admin</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>TestA</t>
+  </si>
+  <si>
+    <t>Vaishnavi</t>
+  </si>
+  <si>
+    <t>Deshmukh</t>
   </si>
 </sst>
 </file>
@@ -371,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -432,6 +438,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/test-classes/ExcelData.xlsx
+++ b/target/test-classes/ExcelData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Admin</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Deshmukh</t>
+  </si>
+  <si>
+    <t>TestD</t>
   </si>
 </sst>
 </file>
@@ -380,7 +383,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,6 +448,12 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/target/test-classes/ExcelData.xlsx
+++ b/target/test-classes/ExcelData.xlsx
@@ -383,7 +383,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,6 +448,9 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
+      <c r="C5">
+        <v>2610</v>
+      </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
